--- a/tiktok_data.xlsx
+++ b/tiktok_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,241 +436,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7281308353035308331</t>
+          <t>tiktok.com/@momentsprod/video/7281533852135345415</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>182747</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7281065900147494187</t>
+          <t>tiktok.com/@momentsprod/video/7281334725262740754</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155200</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280956527584857387</t>
+          <t>tiktok.com/@momentsprod/video/7280905087583554834</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100058</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280570459643546923</t>
+          <t>tiktok.com/@momentsprod/video/7280634815991254279</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256558</v>
+        <v>55931</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280320058453167403</t>
+          <t>tiktok.com/@momentsprod/video/7280543448317332754</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>188602</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280202443042983211</t>
+          <t>tiktok.com/@momentsprod/video/7280264150469659911</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128822</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7279142738866572587</t>
+          <t>tiktok.com/@momentsprod/video/7280167577098243346</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>681453</v>
+        <v>51557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7278356071134072095</t>
+          <t>tiktok.com/@momentsprod/video/7279866881559760136</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>569274</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7277973231175306527</t>
+          <t>tiktok.com/@momentsprod/video/7279797073636068615</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>408967</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7276485612797005087</t>
+          <t>tiktok.com/@momentsprod/video/7279731714488814866</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1131041</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7214065189220601131</t>
+          <t>tiktok.com/@momentsprod/video/7277285772942658824</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32939804</v>
+        <v>7964561</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7212953186724842795</t>
+          <t>tiktok.com/@momentsprod/video/7268265157736844545</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44502177</v>
+        <v>4083467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7281308353035308331</t>
+          <t>tiktok.com/@momentsprod/video/7268025640090144002</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>182756</v>
+        <v>3583734</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7281065900147494187</t>
+          <t>tiktok.com/@momentsprod/video/7281533852135345415</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>155202</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280956527584857387</t>
+          <t>tiktok.com/@momentsprod/video/7281334725262740754</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100060</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280570459643546923</t>
+          <t>tiktok.com/@momentsprod/video/7280905087583554834</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>256559</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280320058453167403</t>
+          <t>tiktok.com/@momentsprod/video/7280634815991254279</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188602</v>
+        <v>55931</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7280202443042983211</t>
+          <t>tiktok.com/@momentsprod/video/7280543448317332754</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128824</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7279142738866572587</t>
+          <t>tiktok.com/@momentsprod/video/7280264150469659911</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>681453</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7278356071134072095</t>
+          <t>tiktok.com/@momentsprod/video/7280167577098243346</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>569274</v>
+        <v>51558</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7277973231175306527</t>
+          <t>tiktok.com/@momentsprod/video/7279866881559760136</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>408967</v>
+        <v>6859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7276485612797005087</t>
+          <t>tiktok.com/@momentsprod/video/7279797073636068615</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1131041</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7214065189220601131</t>
+          <t>tiktok.com/@momentsprod/video/7279731714488814866</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32939804</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tiktok.com/@tiktok/video/7212953186724842795</t>
+          <t>tiktok.com/@momentsprod/video/7277285772942658824</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44502177</v>
+        <v>7964562</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tiktok.com/@momentsprod/video/7268265157736844545</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4083471</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>tiktok.com/@momentsprod/video/7268025640090144002</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3583738</v>
       </c>
     </row>
   </sheetData>
